--- a/biology/Médecine/Éconazole/Éconazole.xlsx
+++ b/biology/Médecine/Éconazole/Éconazole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89conazole</t>
+          <t>Éconazole</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'éconazole est un antifongique de la famille des imidazolés (azolés de 1re génération) introduit dans la thérapeutique en 1974. Il est utilisé uniquement au niveau gynécologique et dermatologique. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89conazole</t>
+          <t>Éconazole</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Indications thérapeutiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'éconazole est indiqué dans le traitement des mycoses vulvo-vaginales surinfectées ou non par des bactéries Gram +, des candidoses cutanées, des dermatophyties (Trichophyton, Epidermophyton, Microsporum), un Pityriasis versicolor, de l'érythrasma, une trichobactériose, etc. 
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89conazole</t>
+          <t>Éconazole</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La cible thérapeutique de cette molécule est une enzyme dépendante du cytochrome P450 (CYP51) qui se trouve dans la membrane plasmique des cellules fongiques. L'éconazole inhibe la 14-alpha-déméthylase qui est responsable de la transformation du lanostérol en ergostérol. L'ergostérol représente 30 % de la membrane plasmique et assure la croissance, la fluidité, et l'intégrité de la membrane.
 En plus de la déplétion en ergostérol, l'inhibition de la 14-alpha-déméthylase aboutit en l'accumulation de précurseurs de l'ergostérol (en particulier le 14-méthyl-stérols) qui sont toxiques et qui altèrent la membrane.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89conazole</t>
+          <t>Éconazole</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,12 +595,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spécialités gynécologiques
-GYNO-PEVARYL : ovule 150 mg ou ovule LP 150 mg
+          <t>Spécialités gynécologiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>GYNO-PEVARYL : ovule 150 mg ou ovule LP 150 mg
 GYNOPURA : ovule LP 150 mg
-MYLEUGYNE : ovule LP 150 mg
-Spécialités topiques
-DERMAZOL : 1 % en crème, émulsion, poudre pour application locale
+MYLEUGYNE : ovule LP 150 mg</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Éconazole</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89conazole</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Spécialités contenant de l'éconazole</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spécialités topiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>DERMAZOL : 1 % en crème, émulsion, poudre pour application locale
 FONGILEINE : 1 % en crème et poudre pour application locale
 GYNOPURA : 1 % en crème
 MYCOAPAISYL : 1 % en crème, émulsion, poudre pour application locale
@@ -595,31 +650,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89conazole</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Éconazole</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89conazole</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Contre-indications et effets indésirables</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette molécule ne doit pas être prise en cas d'allergies aux antifongiques de la famille des imidazolés.
 Les spécialités gynécologiques contenant de l'éconazole ne sont pas contre-indiquées lors de la grossesse ou pendant l'allaitement. Comme tout traitement vaginal, ces spécialités peuvent diminuer l'efficacité des contraceptifs spermicides.
